--- a/report/reliability/by-comb/UFAL A.C. Simões-Ensino Superior-Ciências Humanas.xlsx
+++ b/report/reliability/by-comb/UFAL A.C. Simões-Ensino Superior-Ciências Humanas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9101657424138576</v>
+        <v>0.8913570512923659</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9128892931837016</v>
+        <v>0.8958058894091616</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9596409049775191</v>
+        <v>0.931966633880978</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.38136027853967613</v>
+        <v>0.3980776851748823</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>10.479645115368308</v>
+        <v>8.597471434128531</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02133258080146828</v>
+        <v>0.02598490961065829</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.613672496025437</v>
+        <v>2.5176715176715176</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7073161555448594</v>
+        <v>0.7430698112966484</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.4006438647867918</v>
+        <v>0.4061711625118533</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.9007609017415269</v>
+        <v>0.8892022097044893</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9042264181755865</v>
+        <v>0.8935089916371293</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.953779480926204</v>
+        <v>0.9223006265714696</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.37110113885978147</v>
+        <v>0.41148961144604357</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.44129269210532</v>
+        <v>8.390464184473446</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02391805336325292</v>
+        <v>0.02656434413643995</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03072540716188649</v>
+        <v>0.021739173121916026</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3857367001311489</v>
+        <v>0.4061711625118533</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.9017827818012121</v>
+        <v>0.8759421894653138</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9049040194342731</v>
+        <v>0.8819245889388686</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.952475190606793</v>
+        <v>0.9221188147259992</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.37293488738647984</v>
+        <v>0.3836407095978352</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.515691557634621</v>
+        <v>7.469163825161437</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.023379516731825215</v>
+        <v>0.03024963782830516</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.027343269097629488</v>
+        <v>0.026613578500700594</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3892615218877432</v>
+        <v>0.40369438992972356</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.908192331861844</v>
+        <v>0.8785103953107585</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9106409940022542</v>
+        <v>0.8838008287330285</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9559701816912867</v>
+        <v>0.9217850631889918</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.38909878460019176</v>
+        <v>0.38793976174895045</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>10.190813828269595</v>
+        <v>7.6059133563221994</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02184067141379888</v>
+        <v>0.029151573554455985</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.026566771238238366</v>
+        <v>0.025209156170089193</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.4006438647867918</v>
+        <v>0.40395487992961</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8986349198651893</v>
+        <v>0.8736006816850402</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.9019702330826741</v>
+        <v>0.8790971608810942</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9526071890166607</v>
+        <v>0.9176518893501306</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.36510413470193476</v>
+        <v>0.3773060549795277</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.200983144674383</v>
+        <v>7.271104361879536</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.024195414374572084</v>
+        <v>0.030396335184242358</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.02920127433720622</v>
+        <v>0.025795960125698153</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3796207145641629</v>
+        <v>0.39521213002417754</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9024276101823558</v>
+        <v>0.8942207332001804</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.9052469864444619</v>
+        <v>0.8984935132018708</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9531254244379825</v>
+        <v>0.9297083016875095</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.37386890503823333</v>
+        <v>0.4245042394498002</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.553754044074436</v>
+        <v>8.851587140324824</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.023166589859440485</v>
+        <v>0.025400244807238903</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.029491929984663438</v>
+        <v>0.021590578183667466</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3892615218877432</v>
+        <v>0.4400324820646253</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9023190705053428</v>
+        <v>0.8787607194508381</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9047634233420951</v>
+        <v>0.8826558668142593</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9534167590866548</v>
+        <v>0.9199843535698989</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3725531392550275</v>
+        <v>0.3853070836546601</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.500167426135619</v>
+        <v>7.521942877341203</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02322234602477469</v>
+        <v>0.029048773537310106</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.029019350162087745</v>
+        <v>0.025272262552284753</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3901311543798051</v>
+        <v>0.4020065091783499</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9089845446613547</v>
+        <v>0.8856699295671072</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.911270876491885</v>
+        <v>0.8905501830596263</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9580096269751243</v>
+        <v>0.9247865887035042</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3909461877815058</v>
+        <v>0.4040704175314335</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>10.270256714623603</v>
+        <v>8.136607332516446</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02156665553405607</v>
+        <v>0.027388621616950166</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.029142977909932605</v>
+        <v>0.026965993466269732</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.4039237609804124</v>
+        <v>0.4300233424414103</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.9046370201444317</v>
+        <v>0.8781610784652608</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.907549570846975</v>
+        <v>0.8826209196969725</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9520872099688705</v>
+        <v>0.9169599419300534</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3802438978127958</v>
+        <v>0.38522718289788893</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.816607442078919</v>
+        <v>7.5194056506354165</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.02265510151823115</v>
+        <v>0.029154859973958443</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.029835512477950278</v>
+        <v>0.025232472428517068</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.39001291716117303</v>
+        <v>0.4006438647867918</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.905966124291731</v>
+        <v>0.8885570281874183</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9087427850647085</v>
+        <v>0.8926223615387814</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9566047967914695</v>
+        <v>0.9273714186819348</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.38362058811563593</v>
+        <v>0.40924315848222936</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.958037681832375</v>
+        <v>8.312925990276536</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.022284096119799996</v>
+        <v>0.026601821887271206</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03049635182057066</v>
+        <v>0.025100576026109957</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.40223860289061875</v>
+        <v>0.4155412833827711</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.911203263544722</v>
+        <v>0.8836303501474859</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.913709832111277</v>
+        <v>0.8886604780557146</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.958636690115175</v>
+        <v>0.9228551886131844</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.39824300093867293</v>
+        <v>0.3994455885116571</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>10.588805821881909</v>
+        <v>7.981536677518731</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02113057933602542</v>
+        <v>0.027858163742643344</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.02830232098680939</v>
+        <v>0.02668640886022834</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.4252908984259808</v>
+        <v>0.4150128815519014</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9015950743527887</v>
+        <v>0.8805855161787364</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9049068837065275</v>
+        <v>0.8859961719033775</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9548033398385297</v>
+        <v>0.9249665914766314</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.372942671388852</v>
+        <v>0.393069929058133</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.516008297738836</v>
+        <v>7.771635274847642</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.023407307176540094</v>
+        <v>0.02865120878617714</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03161422715551173</v>
+        <v>0.02930217884384209</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3856184629125168</v>
+        <v>0.4061711625118533</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.9046942910615129</v>
+        <v>0.8912974493629573</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9080192755699902</v>
+        <v>0.8960076952225812</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.952928376307316</v>
+        <v>0.9291595761519308</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.38156705857485</v>
+        <v>0.4179305373023179</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>9.871843054040337</v>
+        <v>8.616096134616521</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.022635150917744155</v>
+        <v>0.026033668277716557</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0297131882168148</v>
+        <v>0.02507779465423059</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.39521213002417754</v>
+        <v>0.4309312384445718</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9022995755947514</v>
+        <v>0.88328243000383</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9047661421747736</v>
+        <v>0.887160495543971</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9516084660167734</v>
+        <v>0.9265149556526268</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.37256051517406824</v>
+        <v>0.39583563261299315</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>9.500467195555634</v>
+        <v>7.862144554965478</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.023223395387400595</v>
+        <v>0.02814887604852009</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.02855381512615078</v>
+        <v>0.028301876591317745</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3892615218877432</v>
+        <v>0.4020065091783499</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9114255428379372</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9149057904033888</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9581180858507805</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.4019067421198386</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>10.751680928003177</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.0211189382344183</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.025199850183981458</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.40896774768586586</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9060632004380992</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9090279309697971</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9528683706118453</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.384435093295769</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.992384922761268</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.02233995326528338</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.029344588799579106</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.4019781128907324</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9050351119879659</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9074002354659472</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9570424328625889</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3798248543337103</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.799163529538554</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.022667816334031893</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.03118361688581446</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.39521213002417754</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9089884810039618</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9116864083515233</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9572612640250132</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.39217313579714647</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>10.323285366768898</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.02158219251248676</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.029937429173431042</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.4056116417317861</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.5847888567587446</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.5644734313369054</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5471671054660522</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.4856469536673288</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.6486486486486487</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2956383286545203</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7901456898557935</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.7765690502862709</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.7615500269202279</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.7230932313356156</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.324324324324324</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.4347677716475786</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7474042055585157</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.7438277188019538</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.7327181258544078</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.6935605805887267</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.1621621621621623</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.0411935862672628</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.8269567739680762</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.8248134119283735</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.8215042067662192</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.7850722628155843</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>2.054054054054054</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.1041826022987409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7709342402409455</v>
+        <v>0.45367043880574803</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.7583794496855976</v>
+        <v>0.465354780379037</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7505562996999802</v>
+        <v>0.41848740503836906</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.7151260323979072</v>
+        <v>0.35427681692517515</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.324324324324324</v>
+        <v>3.4864864864864864</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.4347677716475786</v>
+        <v>1.121051629835467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.741953699715457</v>
+        <v>0.753663667537436</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.7383525634271549</v>
+        <v>0.7638780422562299</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.7368806978311201</v>
+        <v>0.7575290230331523</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.6990146980760684</v>
+        <v>0.7061958464050905</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.1621621621621623</v>
+        <v>2.135135135135135</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.0411935862672628</v>
+        <v>0.947574745282871</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5788001777421133</v>
+        <v>0.6057828125903177</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5618220706801552</v>
+        <v>0.6209775812671773</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5473966994013884</v>
+        <v>0.5923492248544835</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5001892924931346</v>
+        <v>0.5411231852326904</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.6486486486486487</v>
+        <v>2.891891891891892</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2956383286545203</v>
+        <v>0.9062677977956192</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.8266844119842601</v>
+        <v>0.7519829427604485</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.8238744280929342</v>
+        <v>0.7644865617789838</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.8200956705497167</v>
+        <v>0.7623019174063645</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.7939836702928833</v>
+        <v>0.697575687615081</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.054054054054054</v>
+        <v>2.2432432432432434</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.1041826022987409</v>
+        <v>1.0647223270100208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.7205732198285003</v>
+        <v>0.579716884556143</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.7281518925048875</v>
+        <v>0.581582286630295</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.7241317356740086</v>
+        <v>0.5465406307482386</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.6736536572045654</v>
+        <v>0.48652877341894285</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2432432432432434</v>
+        <v>2.72972972972973</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.0647223270100208</v>
+        <v>1.2167499662956562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7358600131943192</v>
+        <v>0.6638312316381483</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7425217427320923</v>
+        <v>0.6562000104613666</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7374188338122667</v>
+        <v>0.6319528736331541</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6963867003974938</v>
+        <v>0.5824653163092445</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.135135135135135</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.947574745282871</v>
+        <v>1.2357293502329008</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5417169875298881</v>
+        <v>0.7084428080435623</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5416460580770133</v>
+        <v>0.7047566625468269</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5153483947286776</v>
+        <v>0.673573528542647</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.46419953372367595</v>
+        <v>0.6396460487334563</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.72972972972973</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.2167499662956562</v>
+        <v>1.1702005680093346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.6628429572293048</v>
+        <v>0.5194212093771567</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6585287935162715</v>
+        <v>0.5154197141189188</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6535449900046698</v>
+        <v>0.4722050820132256</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.5989765390747629</v>
+        <v>0.42338458025709197</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.027027027027027</v>
+        <v>2.3513513513513513</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.2357293502329008</v>
+        <v>1.1598902298689069</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.6085341537841008</v>
+        <v>0.6722844354303181</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.6216510037646313</v>
+        <v>0.6836932249112683</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.602498665675067</v>
+        <v>0.6481715908701522</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.5576993161913525</v>
+        <v>0.6219282442846484</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.891891891891892</v>
+        <v>2.945945945945946</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9062677977956192</v>
+        <v>0.8146555490903279</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.45379392951434894</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4619554979919865</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.4287575988707319</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.3750821947853697</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.4864864864864864</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.121051629835467</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.7409372121829404</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.7382675521358724</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.7261861318650162</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6919200070996975</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.72972972972973</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1702005680093346</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.6506970572616718</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.6440781806337064</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.6366827886470398</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.5965883018029953</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.6216216216216215</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.0368582714503825</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.7346623360798894</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.7424411882342801</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.741257321537777</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6944692822488463</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.5405405405405403</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.960167653028325</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.4176288260993231</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.4219427444179286</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.39673530605658686</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.3451586303064631</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7837837837837838</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>1.0037467347431361</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6098723690282191</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.612755562343988</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6037323687795706</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5479950292477646</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.7567567567567566</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0904995136125413</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.654664547686828</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6631052858601245</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.6391540873986833</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.6132742238822189</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.945945945945946</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.8146555490903279</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5305387143208229</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5282462118077447</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5033319183562439</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.4558005476975423</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.3513513513513513</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.1598902298689069</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.40540540540540543</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.24324324324324326</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="D53" t="n" s="111">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="E53" t="n" s="112">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="F53" t="n" s="113">
         <v>0.08108108108108109</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.10810810810810811</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="C54" t="n" s="110">
         <v>0.32432432432432434</v>
       </c>
-      <c r="C54" t="n" s="110">
-        <v>0.2972972972972973</v>
-      </c>
       <c r="D54" t="n" s="111">
-        <v>0.2972972972972973</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="E54" t="n" s="112">
         <v>0.05405405405405406</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.02702702702702703</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.10810810810810811</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.5675675675675675</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="D55" t="n" s="111">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="F55" t="n" s="113">
         <v>0.05405405405405406</v>
-      </c>
-      <c r="E55" t="n" s="112">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F55" t="n" s="113">
-        <v>0.16216216216216217</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D56" t="n" s="111">
         <v>0.40540540540540543</v>
       </c>
-      <c r="C56" t="n" s="110">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="D56" t="n" s="111">
-        <v>0.21621621621621623</v>
-      </c>
       <c r="E56" t="n" s="112">
-        <v>0.08108108108108109</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.02702702702702703</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.21621621621621623</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C57" t="n" s="110">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D57" t="n" s="111">
         <v>0.5135135135135135</v>
       </c>
-      <c r="D57" t="n" s="111">
-        <v>0.13513513513513514</v>
-      </c>
       <c r="E57" t="n" s="112">
-        <v>0.08108108108108109</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4036,7 +3712,7 @@
         <v>5.927877625548236</v>
       </c>
       <c r="F6" t="n" s="150">
-        <v>0.04063244431998089</v>
+        <v>0.04063244431998093</v>
       </c>
       <c r="G6" t="n" s="151">
         <v>2.2972972972972974</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.8070893572548336</v>
+        <v>0.8254643962848296</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.8166192090068924</v>
+        <v>0.8405438713889897</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7662533494106579</v>
+        <v>0.784966825138767</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5974847550369092</v>
+        <v>0.6373008263335106</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>4.453133856520365</v>
+        <v>5.271317438287223</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.055956187343579794</v>
+        <v>0.04878976645745547</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.011743277586935993</v>
+        <v>0.004102317500887437</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.6199628907417424</v>
+        <v>0.6518124541317172</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7746117784939934</v>
+        <v>0.8070893572548336</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7783697509802092</v>
+        <v>0.8166192090068924</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7045266766563261</v>
+        <v>0.7662533494106578</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5393134171118028</v>
+        <v>0.5974847550369092</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.512019475783305</v>
+        <v>4.453133856520365</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.06217498432975461</v>
+        <v>0.055956187343579794</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.0026741425413316826</v>
+        <v>0.011743277586935994</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5672407371430532</v>
+        <v>0.6199628907417425</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8254643962848296</v>
+        <v>0.7746117784939934</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8405438713889897</v>
+        <v>0.7783697509802092</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.784966825138767</v>
+        <v>0.7045266766563261</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6373008263335106</v>
+        <v>0.5393134171118028</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>5.271317438287223</v>
+        <v>3.512019475783305</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.04878976645745547</v>
+        <v>0.06217498432975461</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.004102317500887437</v>
+        <v>0.0026741425413316826</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6518124541317172</v>
+        <v>0.5672407371430532</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.8269181699539823</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.7635078503753089</v>
+        <v>0.763507850375309</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.6142775908075301</v>
@@ -4197,13 +3873,13 @@
         <v>4.777613974465879</v>
       </c>
       <c r="G14" t="n" s="177">
-        <v>0.05121711779127523</v>
+        <v>0.05121711779127517</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.0016545855560950282</v>
+        <v>0.0016545855560950288</v>
       </c>
       <c r="I14" t="n" s="179">
-        <v>0.6199628907417424</v>
+        <v>0.6199628907417425</v>
       </c>
     </row>
     <row r="15">
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>37.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8554253673868885</v>
+        <v>0.8088233742839819</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8350058813609937</v>
+        <v>0.799258208690548</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7510781637969312</v>
+        <v>0.6929794356852695</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.696485466634401</v>
+        <v>0.6403887731341137</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.324324324324324</v>
+        <v>2.6486486486486487</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.4347677716475786</v>
+        <v>1.2956383286545203</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>37.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8714098857622212</v>
+        <v>0.8554253673868885</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8872332829913027</v>
+        <v>0.8350058813609937</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8532405167688</v>
+        <v>0.7510781637969312</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7819842033508637</v>
+        <v>0.696485466634401</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.1621621621621623</v>
+        <v>2.324324324324324</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.0411935862672628</v>
+        <v>1.4347677716475786</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>37.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8088233742839819</v>
+        <v>0.8714098857622212</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.799258208690548</v>
+        <v>0.8872332829913027</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6929794356852697</v>
+        <v>0.8532405167688001</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6403887731341137</v>
+        <v>0.7819842033508637</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.6486486486486487</v>
+        <v>2.1621621621621623</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2956383286545203</v>
+        <v>1.0411935862672628</v>
       </c>
     </row>
     <row r="22">
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.40540540540540543</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.24324324324324326</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.08108108108108109</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="E27" t="n" s="226">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="F27" t="n" s="227">
         <v>0.16216216216216217</v>
-      </c>
-      <c r="F27" t="n" s="227">
-        <v>0.10810810810810811</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.32432432432432434</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.2972972972972973</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.2972972972972973</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.05405405405405406</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.02702702702702703</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.10810810810810811</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.5675675675675675</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="D29" t="n" s="225">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E29" t="n" s="226">
         <v>0.05405405405405406</v>
       </c>
-      <c r="E29" t="n" s="226">
-        <v>0.10810810810810811</v>
-      </c>
       <c r="F29" t="n" s="227">
-        <v>0.16216216216216217</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.7957502353204444</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8190938476610751</v>
+        <v>0.8190938476610752</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.3936923678613528</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.6951715304076632</v>
+        <v>0.8197751322751323</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7115597455117708</v>
+        <v>0.8253135291021796</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7306228737740816</v>
+        <v>0.8124889932598504</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.33038008376067945</v>
+        <v>0.4858369560003891</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.4669224716025497</v>
+        <v>4.7245417739587365</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.08074578512353292</v>
+        <v>0.046317531599678746</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.03809925064858242</v>
+        <v>0.010801369237475452</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.39041932248915756</v>
+        <v>0.47482669007757117</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.7326898498493867</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7504415332254909</v>
+        <v>0.7504415332254908</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.35408634918339904</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7489856929318812</v>
+        <v>0.739256480218281</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7651633626935492</v>
+        <v>0.7520164428086231</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7814776003968832</v>
+        <v>0.777286873278564</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.39454699986395214</v>
+        <v>0.37753075977547834</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.2582793360945916</v>
+        <v>3.032525427596268</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.0671249885954859</v>
+        <v>0.06892166032418841</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.03750556757646428</v>
+        <v>0.05769974053904586</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.39041932248915756</v>
+        <v>0.41784598294304465</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7710713183081197</v>
+        <v>0.6951715304076632</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7834240516323998</v>
+        <v>0.7115597455117708</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7961906474366729</v>
+        <v>0.7306228737740815</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.41977305858421865</v>
+        <v>0.33038008376067945</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.6173178856530894</v>
+        <v>2.4669224716025497</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.061010324586599884</v>
+        <v>0.08074578512353292</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.034875819851771996</v>
+        <v>0.03809925064858242</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.415920777555063</v>
+        <v>0.3904193224891576</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.739256480218281</v>
+        <v>0.7489856929318812</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7520164428086231</v>
+        <v>0.7651633626935492</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.777286873278564</v>
+        <v>0.7814776003968831</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.37753075977547834</v>
+        <v>0.39454699986395214</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.032525427596268</v>
+        <v>3.2582793360945916</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.06892166032418841</v>
+        <v>0.0671249885954859</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.05769974053904586</v>
+        <v>0.03750556757646428</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.41784598294304465</v>
+        <v>0.3904193224891576</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8197751322751323</v>
+        <v>0.7710713183081197</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8253135291021796</v>
+        <v>0.7834240516323998</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8124889932598504</v>
+        <v>0.7961906474366728</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4858369560003891</v>
+        <v>0.41977305858421865</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.7245417739587365</v>
+        <v>3.6173178856530894</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.046317531599678746</v>
+        <v>0.061010324586599884</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.010801369237475452</v>
+        <v>0.03487581985177199</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.47482669007757117</v>
+        <v>0.41592077755506296</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>37.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.8485012376822822</v>
+        <v>0.4689189689292523</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.8533992758732661</v>
+        <v>0.48504258298733577</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.8480638195876717</v>
+        <v>0.36255203525896607</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.7572399272009632</v>
+        <v>0.2432777446272774</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.2432432432432434</v>
+        <v>3.4864864864864864</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>1.0647223270100208</v>
+        <v>1.121051629835467</v>
       </c>
     </row>
     <row r="22">
@@ -4895,22 +4571,22 @@
         <v>37.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7211074413832683</v>
+        <v>0.724105152032367</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.701355093664042</v>
+        <v>0.7416752534230655</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6296114212005157</v>
+        <v>0.6629416353254719</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.546909522635559</v>
+        <v>0.6050454912444347</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.72972972972973</v>
+        <v>2.891891891891892</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.2167499662956562</v>
+        <v>0.9062677977956192</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>37.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.6671298198509183</v>
+        <v>0.8485012376822822</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.6415816823579443</v>
+        <v>0.8533992758732661</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.5461671015563097</v>
+        <v>0.8480638195876717</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.4679356084360482</v>
+        <v>0.7572399272009632</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.027027027027027</v>
+        <v>2.2432432432432434</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.2357293502329008</v>
+        <v>1.0647223270100208</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>37.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.724105152032367</v>
+        <v>0.7211074413832683</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7416752534230655</v>
+        <v>0.701355093664042</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.662941635325472</v>
+        <v>0.6296114212005157</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.6050454912444347</v>
+        <v>0.546909522635559</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.891891891891892</v>
+        <v>2.72972972972973</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9062677977956192</v>
+        <v>1.2167499662956562</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>37.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.4689189689292523</v>
+        <v>0.6671298198509183</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.48504258298733577</v>
+        <v>0.6415816823579443</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.3625520352589659</v>
+        <v>0.5461671015563097</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.2432777446272774</v>
+        <v>0.4679356084360482</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.4864864864864864</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.121051629835467</v>
+        <v>1.2357293502329008</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.21621621621621623</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.5135135135135135</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.13513513513513514</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.08108108108108109</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.05405405405405406</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.16216216216216217</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C33" t="n" s="338">
         <v>0.32432432432432434</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.21621621621621623</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.21621621621621623</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.08108108108108109</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.43243243243243246</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.32432432432432434</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.10810810810810811</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="E34" t="n" s="340">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F34" t="n" s="341">
         <v>0.05405405405405406</v>
-      </c>
-      <c r="F34" t="n" s="341">
-        <v>0.08108108108108109</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.02702702702702703</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="C35" t="n" s="338">
         <v>0.32432432432432434</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.43243243243243246</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.16216216216216217</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.05405405405405406</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="C36" t="n" s="338">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="D36" t="n" s="339">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="E36" t="n" s="340">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F36" t="n" s="341">
         <v>0.08108108108108109</v>
-      </c>
-      <c r="C36" t="n" s="338">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="D36" t="n" s="339">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E36" t="n" s="340">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="F36" t="n" s="341">
-        <v>0.16216216216216217</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8008228661443436</v>
+        <v>0.6434010152284262</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.7997564697120677</v>
+        <v>0.6467996166040768</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8489534453957865</v>
+        <v>0.5993057657782248</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3632843841854434</v>
+        <v>0.3790432055537023</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>3.993919147160904</v>
+        <v>1.8312540048379315</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.049237732272629</v>
+        <v>0.09668611519632522</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.8185328185328187</v>
+        <v>2.675675675675676</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7019963827330951</v>
+        <v>0.8107551977368532</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.4055805227825885</v>
+        <v>0.46074813051733515</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7265781682742815</v>
+        <v>0.272433828276307</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.729722393468394</v>
+        <v>0.2871487720856929</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7796684970219017</v>
+        <v>0.16764373192839743</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3103368662821292</v>
+        <v>0.16764373192839765</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.6998995693084207</v>
+        <v>0.4028172511196283</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.06986949114175818</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.035332127337509484</v>
-      </c>
+        <v>0.2246564559961382</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.2736893180850803</v>
+        <v>0.16764373192839757</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7570002559508573</v>
+        <v>0.6460000000000001</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7586164143666402</v>
+        <v>0.6743885778611614</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.798173226743147</v>
+        <v>0.5087377542153741</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.3437447331794497</v>
+        <v>0.5087377542153744</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.1427837662454445</v>
+        <v>2.0711453346179187</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.06099469704333357</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.03135988155596587</v>
-      </c>
+        <v>0.1069308187568016</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.37723380614919666</v>
+        <v>0.5087377542153743</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7748160000000001</v>
+        <v>0.6308216584627033</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7702186588387245</v>
+        <v>0.6308385694858396</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.8136565927382704</v>
+        <v>0.4607481305173352</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.35842349821775993</v>
+        <v>0.4607481305173351</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.351963457721029</v>
+        <v>1.7088420331647884</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.05593404757928967</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.03454783095864337</v>
-      </c>
+        <v>0.12137905685937693</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.37723380614919666</v>
+        <v>0.46074813051733515</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8135817927377181</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8154971201153981</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8498767006674914</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.4241825810824344</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.419969599528499</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.047065129733356074</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.02390702325225427</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.4739414440446357</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.769809411367853</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.768348410777768</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.8036066705368177</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.35600397633758785</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.3168277125034664</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.0574843760228918</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.030119896007296483</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.4055805227825885</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7844972907886815</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7809803689248506</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8196883751806552</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.3727655274388732</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.565800769050163</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.05429450089051963</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.037900839901972516</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.4454963018079603</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.786609071274298</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7844396953754775</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.8176073457032513</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.3775335067598694</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.6390730507728133</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.05276736890752467</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.03871435702269548</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.4454963018079603</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8712304542091245</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8575750486967332</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.772459217054141</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.6221785726868878</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.72972972972973</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1702005680093346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7546995918205642</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7090521651155608</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.4762347911901685</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.389943333795346</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.3513513513513513</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.1598902298689069</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.6596438683678605</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7299483310636449</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5291963057905701</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.39660253973413695</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.945945945945946</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.8146555490903279</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.8516280058440524</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.8423188014267585</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.8352353353613624</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.7602981791671003</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.72972972972973</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1702005680093346</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7480844504967776</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7361009574738806</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7078870273282014</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6291130482651075</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.6216216216216215</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.0368582714503825</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.6676537142679848</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.689430908797853</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6322588952177407</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5356667737578497</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.5405405405405403</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.960167653028325</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.4834139837460628</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.48035476443723907</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.3664407174908095</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.30381286948086866</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7837837837837838</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>1.0037467347431361</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7027403853825437</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.6971235998127739</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6637287821937188</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5599496399301326</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.7567567567567566</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0904995136125413</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6068723540077607</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6438314867677679</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5760817663560046</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.4852509310530647</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.945945945945946</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.8146555490903279</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6506881827847603</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6286720488711587</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5653156424678483</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.4792626156997806</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.3513513513513513</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.1598902298689069</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
+      <c r="B27" t="n" s="451">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="E27" t="n" s="454">
         <v>0.1891891891891892</v>
       </c>
-      <c r="C33" t="n" s="452">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
+      <c r="F27" t="n" s="455">
         <v>0.02702702702702703</v>
       </c>
-      <c r="C36" t="n" s="452">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
